--- a/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
+++ b/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
@@ -1,104 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\excel-103-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF6E8C-6099-4CE9-9744-ABC809D35370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385688A5-CB05-4466-8DE0-83CDDA48FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
     <sheet name="SUMIF Function" sheetId="17" r:id="rId2"/>
     <sheet name="VLOOKUP Function" sheetId="1" r:id="rId3"/>
-    <sheet name="Master Emp List" sheetId="35" r:id="rId4"/>
-    <sheet name="HLOOKUP Function" sheetId="22" r:id="rId5"/>
-    <sheet name="Master Inventory List" sheetId="23" r:id="rId6"/>
-    <sheet name="INDEX MATCH Functions" sheetId="34" r:id="rId7"/>
-    <sheet name="INDEX MATCH Master Emp List" sheetId="5" r:id="rId8"/>
-    <sheet name="LEFT RIGHT MID Functions" sheetId="21" r:id="rId9"/>
-    <sheet name="SEARCH Function" sheetId="24" r:id="rId10"/>
-    <sheet name="CONCATENATE" sheetId="20" r:id="rId11"/>
-    <sheet name="Formula Auditing" sheetId="25" r:id="rId12"/>
-    <sheet name="Watch Window" sheetId="27" r:id="rId13"/>
-    <sheet name="Worksheet Protection" sheetId="26" r:id="rId14"/>
-    <sheet name="Goal Seek" sheetId="31" r:id="rId15"/>
-    <sheet name="Solver" sheetId="30" r:id="rId16"/>
-    <sheet name="Data Table" sheetId="28" r:id="rId17"/>
-    <sheet name="Scenarios" sheetId="29" r:id="rId18"/>
-    <sheet name="Macro" sheetId="32" r:id="rId19"/>
-    <sheet name="Test Macro" sheetId="33" r:id="rId20"/>
+    <sheet name="VLOOKUP Function-EXERCISE" sheetId="36" r:id="rId4"/>
+    <sheet name="Master Emp List" sheetId="35" r:id="rId5"/>
+    <sheet name="HLOOKUP Function" sheetId="22" r:id="rId6"/>
+    <sheet name="Master Inventory List" sheetId="23" r:id="rId7"/>
+    <sheet name="INDEX MATCH Functions" sheetId="34" r:id="rId8"/>
+    <sheet name="INDEX MATCH Master Emp List" sheetId="5" r:id="rId9"/>
+    <sheet name="LEFT RIGHT MID Functions" sheetId="21" r:id="rId10"/>
+    <sheet name="SEARCH Function" sheetId="24" r:id="rId11"/>
+    <sheet name="CONCATENATE" sheetId="20" r:id="rId12"/>
+    <sheet name="Formula Auditing" sheetId="25" r:id="rId13"/>
+    <sheet name="Watch Window" sheetId="27" r:id="rId14"/>
+    <sheet name="Worksheet Protection" sheetId="26" r:id="rId15"/>
+    <sheet name="Goal Seek" sheetId="31" r:id="rId16"/>
+    <sheet name="Solver" sheetId="30" r:id="rId17"/>
+    <sheet name="Data Table" sheetId="28" r:id="rId18"/>
+    <sheet name="Scenarios" sheetId="29" r:id="rId19"/>
+    <sheet name="Macro" sheetId="32" r:id="rId20"/>
+    <sheet name="Test Macro" sheetId="33" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'INDEX MATCH Master Emp List'!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Master Emp List'!$B$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'INDEX MATCH Master Emp List'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Master Emp List'!$B$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SUMIF Function'!$A$2:$E$272</definedName>
     <definedName name="Goal">'IF Function'!$I$2</definedName>
     <definedName name="Gross_Margin">#REF!</definedName>
     <definedName name="List">#REF!</definedName>
-    <definedName name="solver_cvg" localSheetId="15" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="16" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs5" localSheetId="15" hidden="1">Solver!$B$8:$E$8</definedName>
-    <definedName name="solver_lhs6" localSheetId="15" hidden="1">Solver!$E$8</definedName>
-    <definedName name="solver_lhs7" localSheetId="15" hidden="1">Solver!$E$8</definedName>
-    <definedName name="solver_lhs8" localSheetId="15" hidden="1">Solver!$E$8</definedName>
-    <definedName name="solver_lin" localSheetId="15" hidden="1">0</definedName>
-    <definedName name="solver_mip" localSheetId="15" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="15" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="15" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="16" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="16" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="16" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="16" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="16" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="16" hidden="1">Solver!$B$8:$E$8</definedName>
+    <definedName name="solver_lhs6" localSheetId="16" hidden="1">Solver!$E$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="16" hidden="1">Solver!$E$8</definedName>
+    <definedName name="solver_lhs8" localSheetId="16" hidden="1">Solver!$E$8</definedName>
+    <definedName name="solver_lin" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_mip" localSheetId="16" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="16" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="16" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="15" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="16" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="15" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="15" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'IF Function'!$I$2</definedName>
-    <definedName name="solver_opt" localSheetId="15" hidden="1">Solver!$H$8</definedName>
-    <definedName name="solver_pre" localSheetId="15" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs3" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs4" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs5" localSheetId="15" hidden="1">Solver!$B$10:$E$10</definedName>
-    <definedName name="solver_rhs6" localSheetId="15" hidden="1">Solver!$E$10</definedName>
-    <definedName name="solver_rhs7" localSheetId="15" hidden="1">Solver!$E$10</definedName>
-    <definedName name="solver_rhs8" localSheetId="15" hidden="1">Solver!$E$10</definedName>
-    <definedName name="solver_rlx" localSheetId="15" hidden="1">1</definedName>
-    <definedName name="solver_rsd" localSheetId="15" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="15" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="15" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="15" hidden="1">0.05</definedName>
+    <definedName name="solver_opt" localSheetId="16" hidden="1">Solver!$H$8</definedName>
+    <definedName name="solver_pre" localSheetId="16" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="16" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="16" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="16" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs4" localSheetId="16" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs5" localSheetId="16" hidden="1">Solver!$B$10:$E$10</definedName>
+    <definedName name="solver_rhs6" localSheetId="16" hidden="1">Solver!$E$10</definedName>
+    <definedName name="solver_rhs7" localSheetId="16" hidden="1">Solver!$E$10</definedName>
+    <definedName name="solver_rhs8" localSheetId="16" hidden="1">Solver!$E$10</definedName>
+    <definedName name="solver_rlx" localSheetId="16" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="16" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="16" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="16" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="16" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="16" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="15" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="15" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="15" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="16" hidden="1">3</definedName>
     <definedName name="week_1">'IF Function'!$B$5:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="284">
   <si>
     <t>Monthly Goal:</t>
   </si>
@@ -974,7 +975,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -983,8 +984,9 @@
     <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="170" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1107,8 +1109,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,8 +1198,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1616,8 +1632,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1629,8 +1660,9 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1818,7 +1850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1966,20 +1997,28 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
+    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Currency_Book1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2690,14 +2729,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2894,13 +2933,13 @@
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="3">
         <f>COUNTIF(H5:H9,"YES")</f>
         <v>3</v>
@@ -2919,6 +2958,427 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A2:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="24">
+        <v>13.65</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="17" t="str">
+        <f>LEFT(A3,3)</f>
+        <v>ACM</v>
+      </c>
+      <c r="F3" s="17" t="str">
+        <f>MID(A3,4,3)</f>
+        <v>110</v>
+      </c>
+      <c r="G3" s="17" t="str">
+        <f>RIGHT(A3,2)</f>
+        <v>WW</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="24">
+        <v>12.19</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="24">
+        <v>10.89</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="24">
+        <v>9.59</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="24">
+        <v>10.4</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="24">
+        <v>10.56</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="24">
+        <v>5.04</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="24">
+        <v>4.55</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="24">
+        <v>7.31</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="24">
+        <v>6.5</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="24">
+        <v>4.55</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="24">
+        <v>14.3</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="24">
+        <v>13.81</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="24">
+        <v>7.31</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="24">
+        <v>7.31</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="24">
+        <v>7.31</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="24">
+        <v>7.64</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="24">
+        <v>6.14</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
@@ -2935,13 +3395,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2976,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:F18"/>
@@ -3000,10 +3460,10 @@
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="131"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="25" t="s">
@@ -3012,11 +3472,11 @@
       <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="132" t="str">
+      <c r="E3" s="130" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
         <v>Howard Smith</v>
       </c>
-      <c r="F3" s="133"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="25" t="s">
@@ -3025,8 +3485,8 @@
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="25" t="s">
@@ -3035,8 +3495,8 @@
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="25" t="s">
@@ -3045,8 +3505,8 @@
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="25" t="s">
@@ -3055,8 +3515,8 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="133"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="25" t="s">
@@ -3065,8 +3525,8 @@
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="25" t="s">
@@ -3075,8 +3535,8 @@
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="25" t="s">
@@ -3085,8 +3545,8 @@
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="25" t="s">
@@ -3095,8 +3555,8 @@
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="25" t="s">
@@ -3105,8 +3565,8 @@
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
@@ -3115,8 +3575,8 @@
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="25" t="s">
@@ -3125,8 +3585,8 @@
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
@@ -3135,8 +3595,8 @@
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="25" t="s">
@@ -3145,8 +3605,8 @@
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="25" t="s">
@@ -3155,8 +3615,8 @@
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="25" t="s">
@@ -3165,18 +3625,11 @@
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3187,6 +3640,13 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3194,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I14"/>
@@ -3218,14 +3678,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -3444,13 +3904,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3467,7 +3927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B2"/>
@@ -3483,7 +3943,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>249</v>
       </c>
       <c r="B2" s="9">
@@ -3496,7 +3956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I14"/>
@@ -3520,14 +3980,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -3566,16 +4026,16 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="71">
         <v>9550</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>9230</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="71">
         <v>8500</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="71">
         <v>8965</v>
       </c>
       <c r="F5" s="15">
@@ -3595,16 +4055,16 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="71">
         <v>5975</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>6900</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>8500</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>10100</v>
       </c>
       <c r="F6" s="15">
@@ -3624,16 +4084,16 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="71">
         <v>7425</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>8580</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>9910</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="71">
         <v>7512</v>
       </c>
       <c r="F7" s="15">
@@ -3653,16 +4113,16 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="71">
         <v>9560</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>10150</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="71">
         <v>10200</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <v>9795</v>
       </c>
       <c r="F8" s="15">
@@ -3682,16 +4142,16 @@
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>7892</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>7695</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <v>9520</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>10252</v>
       </c>
       <c r="F9" s="51">
@@ -3747,13 +4207,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3770,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D4"/>
@@ -3788,43 +4248,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:4">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="91">
         <v>220000</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="95" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="92">
         <v>0.08</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="93">
         <v>300</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H11"/>
@@ -3835,190 +4295,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="78" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="78" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="78" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="78" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="25.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="77" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="77" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="77" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="10.5" customHeight="1">
-      <c r="A1" s="91"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="101" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="103" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="85">
         <v>1</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="85">
         <v>1</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="85">
         <v>1</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="85">
+      <c r="F5" s="73"/>
+      <c r="G5" s="84">
         <v>1.25</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="83">
         <f>G5*(B5+C5+D5+E5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="87">
         <v>0</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="85">
         <v>0</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="85">
         <v>0</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="85">
         <v>0</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="85">
+      <c r="F6" s="73"/>
+      <c r="G6" s="84">
         <v>1.84</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="83">
         <f>G6*(B6+C6+D6+E6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="85">
         <v>0</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="85">
         <v>0</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>0</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="85">
         <v>0</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="85">
+      <c r="F7" s="73"/>
+      <c r="G7" s="84">
         <v>1.45</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="83">
         <f>G7*(B7+C7+D7+E7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <f>SUM(B5:B7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <f>SUM(C5:C7)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="82">
         <f>SUM(D5:D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="82">
         <f>SUM(E5:E7)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="105">
+      <c r="F8" s="73"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="104">
         <f>H5+H6+H7</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="4.5" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="74"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="105">
         <v>180</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="105">
         <v>80</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="105">
         <v>190</v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="105">
         <v>160</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="79"/>
-      <c r="F11" s="74"/>
+      <c r="A11" s="78"/>
+      <c r="F11" s="73"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -4032,7 +4492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="B2:C14"/>
@@ -4043,87 +4503,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="74"/>
-    <col min="2" max="2" width="17.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.42578125" style="74" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="17.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="106">
         <v>220000</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="107">
         <v>0.08</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="108">
         <f>25*12</f>
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="C6" s="76"/>
+      <c r="C6" s="75"/>
     </row>
     <row r="7" spans="2:3" ht="15.75">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <f>-PMT(C3/12,C4,C2)</f>
         <v>1697.9956826206067</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75">
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="2:3" ht="15.75">
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="2:3" ht="15.75">
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="2:3" ht="15.75">
-      <c r="B11" s="75">
+      <c r="B11" s="74">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:3" ht="15.75">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="2:3" ht="15.75">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:3" ht="15.75">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>0.09</v>
       </c>
       <c r="C14" s="12"/>
@@ -4139,7 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B2:G14"/>
@@ -4150,189 +4610,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="74"/>
-    <col min="2" max="2" width="11.5703125" style="74" customWidth="1"/>
-    <col min="3" max="6" width="14.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="2" max="2" width="11.5703125" style="73" customWidth="1"/>
+    <col min="3" max="6" width="14.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="110" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="112">
         <v>85292.25</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="112">
         <f>C3*C11+C3</f>
         <v>88106.894249999998</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="112">
         <f>D3*C11+D3</f>
         <v>91014.421760249999</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="112">
         <f>E3*C11+E3</f>
         <v>94017.897678338253</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="112">
         <f>SUM(C3:F3)</f>
         <v>358431.46368858824</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="112">
         <v>75891.25</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="112">
         <f>C4*C12+C4</f>
         <v>77636.748749999999</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="112">
         <f>D4*C12+D4</f>
         <v>79422.39397125</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="112">
         <f>E4*C12+E4</f>
         <v>81249.109032588749</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="112">
         <f>SUM(C4:F4)</f>
         <v>314199.50175383873</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="112">
         <v>90568.34</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="112">
         <f>C5*C13+C5</f>
         <v>94462.778619999997</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="112">
         <f>D5*C13+D5</f>
         <v>98524.678100659992</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="112">
         <f>E5*C13+E5</f>
         <v>102761.23925898837</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="112">
         <f>SUM(C5:F5)</f>
         <v>386317.03597964835</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="112">
         <v>65897.25</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="112">
         <f>C6*C14+C6</f>
         <v>66622.119749999998</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="112">
         <f>D6*C14+D6</f>
         <v>67354.963067249992</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="112">
         <f>E6*C14+E6</f>
         <v>68095.867660989737</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="112">
         <f>SUM(C6:F6)</f>
         <v>267970.20047823974</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="76">
         <f>SUM(C3:C6)</f>
         <v>317649.08999999997</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="76">
         <f>SUM(D3:D6)</f>
         <v>326828.54136999999</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="76">
         <f>SUM(E3:E6)</f>
         <v>336316.45689940994</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="76">
         <f>SUM(F3:F6)</f>
         <v>346124.11363090511</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="76">
         <f>SUM(G3:G6)</f>
         <v>1326918.201900315</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="133"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="114">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="114">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="114">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -4350,1107 +4810,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="118" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="116"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7">
-        <v>148</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="117">
-        <v>33344</v>
-      </c>
-      <c r="I1" s="116">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7">
-        <v>1056</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7">
-        <v>121</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="117">
-        <v>29153</v>
-      </c>
-      <c r="I2" s="116">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7">
-        <v>1067</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7">
-        <v>123</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="117">
-        <v>32040</v>
-      </c>
-      <c r="I3" s="116">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7">
-        <v>1075</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="7">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="117">
-        <v>33823</v>
-      </c>
-      <c r="I4" s="116">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7">
-        <v>1078</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7">
-        <v>101</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="117">
-        <v>31503</v>
-      </c>
-      <c r="I5" s="116">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7">
-        <v>1152</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7">
-        <v>118</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="117">
-        <v>32894</v>
-      </c>
-      <c r="I6" s="116">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7">
-        <v>1196</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7">
-        <v>289</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="117">
-        <v>35886</v>
-      </c>
-      <c r="I7" s="116">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7">
-        <v>1284</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7">
-        <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="117">
-        <v>31051</v>
-      </c>
-      <c r="I8" s="116">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7">
-        <v>1290</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7">
-        <v>113</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="117">
-        <v>31050</v>
-      </c>
-      <c r="I9" s="116">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7">
-        <v>1293</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="7">
-        <v>205</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="117">
-        <v>30939</v>
-      </c>
-      <c r="I10" s="116">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7">
-        <v>1299</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7">
-        <v>127</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="117">
-        <v>32863</v>
-      </c>
-      <c r="I11" s="116">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7">
-        <v>1302</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="7">
-        <v>139</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="117">
-        <v>30900</v>
-      </c>
-      <c r="I12" s="116">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7">
-        <v>1310</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7">
-        <v>137</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="117">
-        <v>31689</v>
-      </c>
-      <c r="I13" s="116">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7">
-        <v>1329</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="117">
-        <v>32561</v>
-      </c>
-      <c r="I14" s="116">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7">
-        <v>1333</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="7">
-        <v>122</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="117">
-        <v>32979</v>
-      </c>
-      <c r="I15" s="116">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7">
-        <v>1368</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7">
-        <v>132</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="117">
-        <v>30386</v>
-      </c>
-      <c r="I16" s="116">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7">
-        <v>1509</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="117">
-        <v>31217</v>
-      </c>
-      <c r="I17" s="116">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7">
-        <v>1516</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="7">
-        <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="117">
-        <v>31112</v>
-      </c>
-      <c r="I18" s="116">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7">
-        <v>1529</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="117">
-        <v>31805</v>
-      </c>
-      <c r="I19" s="116">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7">
-        <v>1656</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7">
-        <v>149</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="117">
-        <v>32125</v>
-      </c>
-      <c r="I20" s="116">
-        <v>12.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7">
-        <v>1672</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="7">
-        <v>114</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="117">
-        <v>32979</v>
-      </c>
-      <c r="I21" s="116">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7">
-        <v>1673</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="7">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="117">
-        <v>33688</v>
-      </c>
-      <c r="I22" s="116">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7">
-        <v>1676</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="7">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="117">
-        <v>29885</v>
-      </c>
-      <c r="I23" s="116">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7">
-        <v>1721</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="7">
-        <v>102</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="117">
-        <v>33091</v>
-      </c>
-      <c r="I24" s="116">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7">
-        <v>1723</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="7">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="117">
-        <v>28531</v>
-      </c>
-      <c r="I25" s="116">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7">
-        <v>1758</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="7">
-        <v>107</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="117">
-        <v>30028</v>
-      </c>
-      <c r="I26" s="116">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7">
-        <v>1792</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="7">
-        <v>111</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="117">
-        <v>33231</v>
-      </c>
-      <c r="I27" s="116">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7">
-        <v>1814</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7">
-        <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="117">
-        <v>32571</v>
-      </c>
-      <c r="I28" s="116">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
-        <v>1908</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7">
-        <v>152</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="117">
-        <v>30817</v>
-      </c>
-      <c r="I29" s="116">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
-        <v>1931</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="7">
-        <v>110</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="117">
-        <v>32679</v>
-      </c>
-      <c r="I30" s="116">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7">
-        <v>1960</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="7">
-        <v>150</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="117">
-        <v>31729</v>
-      </c>
-      <c r="I31" s="116">
-        <v>11.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7">
-        <v>1964</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="7">
-        <v>108</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="117">
-        <v>33559</v>
-      </c>
-      <c r="I32" s="116">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="7">
-        <v>1975</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="7">
-        <v>125</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="117">
-        <v>35125</v>
-      </c>
-      <c r="I33" s="116">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="7">
-        <v>1983</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="7">
-        <v>154</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="117">
-        <v>35609</v>
-      </c>
-      <c r="I34" s="116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="7">
-        <v>1990</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="7">
-        <v>198</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="117">
-        <v>35840</v>
-      </c>
-      <c r="I35" s="116">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="7">
-        <v>1995</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="7">
-        <v>198</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="117">
-        <v>35855</v>
-      </c>
-      <c r="I36" s="116">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="7">
-        <v>1999</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="7">
-        <v>428</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="117">
-        <v>35981</v>
-      </c>
-      <c r="I37" s="116">
-        <v>10.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:I272"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10392,6 +9758,1100 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="117" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="115"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7">
+        <v>1054</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7">
+        <v>148</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="116">
+        <v>33344</v>
+      </c>
+      <c r="I1" s="115">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
+        <v>1056</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7">
+        <v>121</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="116">
+        <v>29153</v>
+      </c>
+      <c r="I2" s="115">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7">
+        <v>1067</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7">
+        <v>123</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="116">
+        <v>32040</v>
+      </c>
+      <c r="I3" s="115">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>1075</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="116">
+        <v>33823</v>
+      </c>
+      <c r="I4" s="115">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7">
+        <v>1078</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="116">
+        <v>31503</v>
+      </c>
+      <c r="I5" s="115">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7">
+        <v>1152</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="7">
+        <v>118</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="116">
+        <v>32894</v>
+      </c>
+      <c r="I6" s="115">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7">
+        <v>1196</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7">
+        <v>289</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="116">
+        <v>35886</v>
+      </c>
+      <c r="I7" s="115">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7">
+        <v>1284</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7">
+        <v>124</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="116">
+        <v>31051</v>
+      </c>
+      <c r="I8" s="115">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>1290</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7">
+        <v>113</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="116">
+        <v>31050</v>
+      </c>
+      <c r="I9" s="115">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7">
+        <v>1293</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="116">
+        <v>30939</v>
+      </c>
+      <c r="I10" s="115">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7">
+        <v>1299</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="116">
+        <v>32863</v>
+      </c>
+      <c r="I11" s="115">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7">
+        <v>1302</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7">
+        <v>139</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="116">
+        <v>30900</v>
+      </c>
+      <c r="I12" s="115">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>1310</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7">
+        <v>137</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="116">
+        <v>31689</v>
+      </c>
+      <c r="I13" s="115">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7">
+        <v>1329</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="116">
+        <v>32561</v>
+      </c>
+      <c r="I14" s="115">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7">
+        <v>1333</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7">
+        <v>122</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="116">
+        <v>32979</v>
+      </c>
+      <c r="I15" s="115">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7">
+        <v>1368</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7">
+        <v>132</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="116">
+        <v>30386</v>
+      </c>
+      <c r="I16" s="115">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>1509</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7">
+        <v>135</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="116">
+        <v>31217</v>
+      </c>
+      <c r="I17" s="115">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>1516</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="116">
+        <v>31112</v>
+      </c>
+      <c r="I18" s="115">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7">
+        <v>1529</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="116">
+        <v>31805</v>
+      </c>
+      <c r="I19" s="115">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7">
+        <v>1656</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7">
+        <v>149</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="116">
+        <v>32125</v>
+      </c>
+      <c r="I20" s="115">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="7">
+        <v>114</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="116">
+        <v>32979</v>
+      </c>
+      <c r="I21" s="115">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
+        <v>1673</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="116">
+        <v>33688</v>
+      </c>
+      <c r="I22" s="115">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
+        <v>1676</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="116">
+        <v>29885</v>
+      </c>
+      <c r="I23" s="115">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
+        <v>1721</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="116">
+        <v>33091</v>
+      </c>
+      <c r="I24" s="115">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <v>1723</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="116">
+        <v>28531</v>
+      </c>
+      <c r="I25" s="115">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
+        <v>1758</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7">
+        <v>107</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="116">
+        <v>30028</v>
+      </c>
+      <c r="I26" s="115">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7">
+        <v>1792</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="7">
+        <v>111</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="116">
+        <v>33231</v>
+      </c>
+      <c r="I27" s="115">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
+        <v>1814</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="7">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="116">
+        <v>32571</v>
+      </c>
+      <c r="I28" s="115">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
+        <v>1908</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7">
+        <v>152</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="116">
+        <v>30817</v>
+      </c>
+      <c r="I29" s="115">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>1931</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7">
+        <v>110</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="116">
+        <v>32679</v>
+      </c>
+      <c r="I30" s="115">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
+        <v>1960</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="7">
+        <v>150</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="116">
+        <v>31729</v>
+      </c>
+      <c r="I31" s="115">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
+        <v>1964</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="7">
+        <v>108</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="116">
+        <v>33559</v>
+      </c>
+      <c r="I32" s="115">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7">
+        <v>1975</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="7">
+        <v>125</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="116">
+        <v>35125</v>
+      </c>
+      <c r="I33" s="115">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7">
+        <v>1983</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="7">
+        <v>154</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="116">
+        <v>35609</v>
+      </c>
+      <c r="I34" s="115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7">
+        <v>1990</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="7">
+        <v>198</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="116">
+        <v>35840</v>
+      </c>
+      <c r="I35" s="115">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="7">
+        <v>198</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="116">
+        <v>35855</v>
+      </c>
+      <c r="I36" s="115">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7">
+        <v>1999</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="7">
+        <v>428</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="116">
+        <v>35981</v>
+      </c>
+      <c r="I37" s="115">
+        <v>10.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I37"/>
@@ -10403,8 +10863,8 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="116"/>
+    <col min="8" max="8" width="13.5703125" style="117" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10429,10 +10889,10 @@
       <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="117">
+      <c r="H1" s="116">
         <v>33344</v>
       </c>
-      <c r="I1" s="116">
+      <c r="I1" s="115">
         <v>11.25</v>
       </c>
     </row>
@@ -10458,10 +10918,10 @@
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="116">
         <v>29153</v>
       </c>
-      <c r="I2" s="116">
+      <c r="I2" s="115">
         <v>12.25</v>
       </c>
     </row>
@@ -10487,10 +10947,10 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="116">
         <v>32040</v>
       </c>
-      <c r="I3" s="116">
+      <c r="I3" s="115">
         <v>14.55</v>
       </c>
     </row>
@@ -10516,10 +10976,10 @@
       <c r="G4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="116">
         <v>33823</v>
       </c>
-      <c r="I4" s="116">
+      <c r="I4" s="115">
         <v>11.25</v>
       </c>
     </row>
@@ -10545,10 +11005,10 @@
       <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="116">
         <v>31503</v>
       </c>
-      <c r="I5" s="116">
+      <c r="I5" s="115">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -10574,10 +11034,10 @@
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="116">
         <v>32894</v>
       </c>
-      <c r="I6" s="116">
+      <c r="I6" s="115">
         <v>12.25</v>
       </c>
     </row>
@@ -10603,10 +11063,10 @@
       <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="116">
         <v>35886</v>
       </c>
-      <c r="I7" s="116">
+      <c r="I7" s="115">
         <v>9.9499999999999993</v>
       </c>
     </row>
@@ -10632,10 +11092,10 @@
       <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="116">
         <v>31051</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="115">
         <v>12.3</v>
       </c>
     </row>
@@ -10661,10 +11121,10 @@
       <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="116">
         <v>31050</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="115">
         <v>13.25</v>
       </c>
     </row>
@@ -10690,10 +11150,10 @@
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="116">
         <v>30939</v>
       </c>
-      <c r="I10" s="116">
+      <c r="I10" s="115">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -10719,10 +11179,10 @@
       <c r="G11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="116">
         <v>32863</v>
       </c>
-      <c r="I11" s="116">
+      <c r="I11" s="115">
         <v>12.2</v>
       </c>
     </row>
@@ -10748,10 +11208,10 @@
       <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="116">
         <v>30900</v>
       </c>
-      <c r="I12" s="116">
+      <c r="I12" s="115">
         <v>14.25</v>
       </c>
     </row>
@@ -10777,10 +11237,10 @@
       <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="116">
         <v>31689</v>
       </c>
-      <c r="I13" s="116">
+      <c r="I13" s="115">
         <v>11.5</v>
       </c>
     </row>
@@ -10806,10 +11266,10 @@
       <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="117">
+      <c r="H14" s="116">
         <v>32561</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="115">
         <v>10.35</v>
       </c>
     </row>
@@ -10835,10 +11295,10 @@
       <c r="G15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <v>32979</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="115">
         <v>10.15</v>
       </c>
     </row>
@@ -10864,10 +11324,10 @@
       <c r="G16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="117">
+      <c r="H16" s="116">
         <v>30386</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="115">
         <v>12.25</v>
       </c>
     </row>
@@ -10893,10 +11353,10 @@
       <c r="G17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="116">
         <v>31217</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="115">
         <v>13.25</v>
       </c>
     </row>
@@ -10922,10 +11382,10 @@
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="117">
+      <c r="H18" s="116">
         <v>31112</v>
       </c>
-      <c r="I18" s="116">
+      <c r="I18" s="115">
         <v>9.5</v>
       </c>
     </row>
@@ -10951,10 +11411,10 @@
       <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="116">
         <v>31805</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="115">
         <v>11.3</v>
       </c>
     </row>
@@ -10980,10 +11440,10 @@
       <c r="G20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="116">
         <v>32125</v>
       </c>
-      <c r="I20" s="116">
+      <c r="I20" s="115">
         <v>12.35</v>
       </c>
     </row>
@@ -11009,10 +11469,10 @@
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="117">
+      <c r="H21" s="116">
         <v>32979</v>
       </c>
-      <c r="I21" s="116">
+      <c r="I21" s="115">
         <v>11.9</v>
       </c>
     </row>
@@ -11038,10 +11498,10 @@
       <c r="G22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="117">
+      <c r="H22" s="116">
         <v>33688</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="115">
         <v>11.85</v>
       </c>
     </row>
@@ -11067,10 +11527,10 @@
       <c r="G23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="116">
         <v>29885</v>
       </c>
-      <c r="I23" s="116">
+      <c r="I23" s="115">
         <v>10.75</v>
       </c>
     </row>
@@ -11096,10 +11556,10 @@
       <c r="G24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="117">
+      <c r="H24" s="116">
         <v>33091</v>
       </c>
-      <c r="I24" s="116">
+      <c r="I24" s="115">
         <v>9.75</v>
       </c>
     </row>
@@ -11125,10 +11585,10 @@
       <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="117">
+      <c r="H25" s="116">
         <v>28531</v>
       </c>
-      <c r="I25" s="116">
+      <c r="I25" s="115">
         <v>13.95</v>
       </c>
     </row>
@@ -11154,10 +11614,10 @@
       <c r="G26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="117">
+      <c r="H26" s="116">
         <v>30028</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="115">
         <v>11.2</v>
       </c>
     </row>
@@ -11183,10 +11643,10 @@
       <c r="G27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="116">
         <v>33231</v>
       </c>
-      <c r="I27" s="116">
+      <c r="I27" s="115">
         <v>10.3</v>
       </c>
     </row>
@@ -11212,10 +11672,10 @@
       <c r="G28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="116">
         <v>32571</v>
       </c>
-      <c r="I28" s="116">
+      <c r="I28" s="115">
         <v>12.25</v>
       </c>
     </row>
@@ -11241,10 +11701,10 @@
       <c r="G29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="116">
         <v>30817</v>
       </c>
-      <c r="I29" s="116">
+      <c r="I29" s="115">
         <v>10.25</v>
       </c>
     </row>
@@ -11270,10 +11730,10 @@
       <c r="G30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H30" s="116">
         <v>32679</v>
       </c>
-      <c r="I30" s="116">
+      <c r="I30" s="115">
         <v>9.85</v>
       </c>
     </row>
@@ -11299,10 +11759,10 @@
       <c r="G31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="116">
         <v>31729</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="115">
         <v>11.65</v>
       </c>
     </row>
@@ -11328,10 +11788,10 @@
       <c r="G32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="116">
         <v>33559</v>
       </c>
-      <c r="I32" s="116">
+      <c r="I32" s="115">
         <v>9.25</v>
       </c>
     </row>
@@ -11357,10 +11817,10 @@
       <c r="G33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="117">
+      <c r="H33" s="116">
         <v>35125</v>
       </c>
-      <c r="I33" s="116">
+      <c r="I33" s="115">
         <v>9.25</v>
       </c>
     </row>
@@ -11386,10 +11846,10 @@
       <c r="G34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="117">
+      <c r="H34" s="116">
         <v>35609</v>
       </c>
-      <c r="I34" s="116">
+      <c r="I34" s="115">
         <v>11</v>
       </c>
     </row>
@@ -11415,10 +11875,10 @@
       <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="117">
+      <c r="H35" s="116">
         <v>35840</v>
       </c>
-      <c r="I35" s="116">
+      <c r="I35" s="115">
         <v>10.95</v>
       </c>
     </row>
@@ -11444,10 +11904,10 @@
       <c r="G36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="117">
+      <c r="H36" s="116">
         <v>35855</v>
       </c>
-      <c r="I36" s="116">
+      <c r="I36" s="115">
         <v>11.75</v>
       </c>
     </row>
@@ -11473,10 +11933,10 @@
       <c r="G37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="117">
+      <c r="H37" s="116">
         <v>35981</v>
       </c>
-      <c r="I37" s="116">
+      <c r="I37" s="115">
         <v>10.15</v>
       </c>
     </row>
@@ -11490,8 +11950,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11521,19 +11981,28 @@
       <c r="F2" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="124"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="10">
         <v>1054</v>
       </c>
       <c r="C3" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B3,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Howard</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Smith</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F3" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
       <c r="G3" s="67"/>
     </row>
     <row r="4" spans="2:7">
@@ -11541,12 +12010,21 @@
         <v>1056</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B4,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Joe</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Gonzales</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F4" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G4" s="67"/>
     </row>
     <row r="5" spans="2:7">
@@ -11554,12 +12032,21 @@
         <v>1067</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B5,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Gail</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Scote</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="F5" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.55</v>
+      </c>
       <c r="G5" s="67"/>
     </row>
     <row r="6" spans="2:7">
@@ -11567,12 +12054,21 @@
         <v>1075</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B6,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Sheryl</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Kane</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F6" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
       <c r="G6" s="67"/>
     </row>
     <row r="7" spans="2:7">
@@ -11580,12 +12076,21 @@
         <v>1078</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B7,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Kendrick</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Hapsbuch</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="F7" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.199999999999999</v>
+      </c>
       <c r="G7" s="67"/>
     </row>
     <row r="8" spans="2:7">
@@ -11593,12 +12098,21 @@
         <v>1152</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B8,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Mark</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Henders</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F8" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G8" s="67"/>
     </row>
     <row r="9" spans="2:7">
@@ -11606,12 +12120,21 @@
         <v>1196</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B9,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Katie</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Atherton</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="F9" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>9.9499999999999993</v>
+      </c>
       <c r="G9" s="67"/>
     </row>
     <row r="10" spans="2:7">
@@ -11619,45 +12142,81 @@
         <v>1284</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B10,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Frank</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Bellwood</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="F10" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.3</v>
+      </c>
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="10"/>
-      <c r="C11" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B11,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="10"/>
-      <c r="C12" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B12,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="10"/>
-      <c r="C13" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B13,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
-        <v>EMP ID NOT FOUND</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="2:7">
@@ -11665,12 +12224,21 @@
         <v>1302</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B14,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Randy</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Sindole</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="F14" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.25</v>
+      </c>
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="2:7">
@@ -11678,12 +12246,21 @@
         <v>1310</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B15,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Ellen</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Smith</v>
+      </c>
+      <c r="E15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MF</v>
+      </c>
+      <c r="F15" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.5</v>
+      </c>
       <c r="G15" s="67"/>
     </row>
     <row r="16" spans="2:7">
@@ -11691,12 +12268,21 @@
         <v>1329</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B16,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tuome</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Vuanuo</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="F16" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.35</v>
+      </c>
       <c r="G16" s="67"/>
     </row>
     <row r="17" spans="2:7">
@@ -11704,12 +12290,21 @@
         <v>1333</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B17,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tadeuz</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Szcznyck</v>
+      </c>
+      <c r="E17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="F17" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.15</v>
+      </c>
       <c r="G17" s="67"/>
     </row>
     <row r="18" spans="2:7" ht="13.5" thickBot="1">
@@ -11717,12 +12312,21 @@
         <v>1368</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f>IFERROR(VLOOKUP($B18,'Master Emp List'!$A$1:$I$38,3,FALSE),"EMP ID NOT FOUND")</f>
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
         <v>Tammy</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>Wu</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="F18" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
       <c r="G18" s="67"/>
     </row>
   </sheetData>
@@ -11733,11 +12337,400 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B8185E-7BA3-4362-A8D0-D46215F52FFF}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="13.5" thickBot="1"/>
+    <row r="2" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="123"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="10">
+        <v>1054</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>howards</v>
+      </c>
+      <c r="D3" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>148</v>
+      </c>
+      <c r="E3" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="10">
+        <v>1056</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>joeg</v>
+      </c>
+      <c r="D4" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>121</v>
+      </c>
+      <c r="E4" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="10">
+        <v>1067</v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>gails</v>
+      </c>
+      <c r="D5" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>123</v>
+      </c>
+      <c r="E5" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.55</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AT</v>
+      </c>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="10">
+        <v>1075</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>sherylk</v>
+      </c>
+      <c r="D6" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>126</v>
+      </c>
+      <c r="E6" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.25</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="10">
+        <v>1078</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>kendrickh</v>
+      </c>
+      <c r="D7" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E7" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="10">
+        <v>1152</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>markh</v>
+      </c>
+      <c r="D8" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>118</v>
+      </c>
+      <c r="E8" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10">
+        <v>1196</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>katiea</v>
+      </c>
+      <c r="D9" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>289</v>
+      </c>
+      <c r="E9" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="10">
+        <v>1284</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>frankb</v>
+      </c>
+      <c r="D10" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>124</v>
+      </c>
+      <c r="E10" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.3</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="11" t="e">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10">
+        <v>1302</v>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>randys</v>
+      </c>
+      <c r="D14" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>139</v>
+      </c>
+      <c r="E14" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>14.25</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MK</v>
+      </c>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10">
+        <v>1310</v>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>ellens</v>
+      </c>
+      <c r="D15" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>137</v>
+      </c>
+      <c r="E15" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>11.5</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>MF</v>
+      </c>
+      <c r="G15" s="67"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="10">
+        <v>1329</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>tuomev</v>
+      </c>
+      <c r="D16" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>151</v>
+      </c>
+      <c r="E16" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.35</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AC</v>
+      </c>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="10">
+        <v>1333</v>
+      </c>
+      <c r="C17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>tadeuzs</v>
+      </c>
+      <c r="D17" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>122</v>
+      </c>
+      <c r="E17" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>10.15</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>HR</v>
+      </c>
+      <c r="G17" s="67"/>
+    </row>
+    <row r="18" spans="2:7" ht="13.5" thickBot="1">
+      <c r="B18" s="13">
+        <v>1368</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(C$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>tammyw</v>
+      </c>
+      <c r="D18" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>132</v>
+      </c>
+      <c r="E18" s="11">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>12.25</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <v>AD</v>
+      </c>
+      <c r="G18" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE727711-D0A2-4196-A6AA-50DDE55C0A6F}">
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -12855,13 +13848,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12876,45 +13869,96 @@
     <col min="8" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="129" t="s">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="130"/>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B2" s="129"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="61" t="s">
         <v>230</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="7.5" customHeight="1" thickTop="1">
+      <c r="C3" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="7.5" customHeight="1" thickTop="1">
       <c r="A4" s="59"/>
       <c r="B4" s="58"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="62" t="s">
         <v>229</v>
       </c>
       <c r="B5" s="57">
-        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,2,FALSE)</f>
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT(A5,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A5,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(C$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>135</v>
+      </c>
+      <c r="D5" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A5,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(D$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>90</v>
+      </c>
+      <c r="E5" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A5,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(E$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="57"/>
-    </row>
-    <row r="7" spans="1:2" ht="13.5" thickBot="1">
+      <c r="B6" s="57">
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT(A6,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
+        <v>110</v>
+      </c>
+      <c r="C6" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A6,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(C$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>75</v>
+      </c>
+      <c r="D6" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A6,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(D$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>95</v>
+      </c>
+      <c r="E6" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A6,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(E$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1">
       <c r="A7" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="57">
+        <f>HLOOKUP($B$3,'Master Inventory List'!$A$2:$G$5,MATCH(LEFT(A7,11),'Master Inventory List'!$A$2:$A$5,0),FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="C7" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A7,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(C$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>65</v>
+      </c>
+      <c r="D7" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A7,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(D$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>55</v>
+      </c>
+      <c r="E7" s="57">
+        <f>INDEX('Master Inventory List'!$B$3:$G$5,MATCH(LEFT($A7,11),'Master Inventory List'!$A$3:$A$5,0),MATCH(E$3,'Master Inventory List'!$B$2:$G$2,0))</f>
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12925,13 +13969,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13038,12 +14082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A99380-3415-42C6-8C41-613698A280FA}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13053,28 +14097,28 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="41.25" customHeight="1" thickBot="1">
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="122" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>240</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>239</v>
       </c>
     </row>
@@ -13082,112 +14126,326 @@
       <c r="B4" s="68">
         <v>1054</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="C4" s="68" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!$A$1:$I$38,10,3)</f>
+        <v>Linda</v>
+      </c>
+      <c r="D4" s="68">
+        <f>MATCH(B4,'INDEX MATCH Master Emp List'!A2:A38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D1:$D$38,MATCH(B4,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>AT</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="68">
         <v>1078</v>
       </c>
       <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="D5" s="68">
+        <f>MATCH(B5,'INDEX MATCH Master Emp List'!A3:A39,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D2:$D$38,MATCH(B5,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>AD</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="68">
         <v>1284</v>
       </c>
       <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="F6" s="69"/>
+      <c r="D6" s="68">
+        <f>MATCH(B6,'INDEX MATCH Master Emp List'!A4:A40,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D3:$D$38,MATCH(B6,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>HR</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="68">
         <v>1299</v>
       </c>
       <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="F7" s="69"/>
+      <c r="D7" s="68">
+        <f>MATCH(B7,'INDEX MATCH Master Emp List'!A5:A41,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D4:$D$38,MATCH(B7,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>AC</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="68">
         <v>1329</v>
       </c>
       <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="F8" s="69"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="D8" s="68">
+        <f>MATCH(B8,'INDEX MATCH Master Emp List'!A6:A42,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D5:$D$38,MATCH(B8,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>AC</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="13.5" thickBot="1">
       <c r="B9" s="68">
         <v>1509</v>
       </c>
       <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="F9" s="69"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="F10" s="69"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="D9" s="68">
+        <f>MATCH(B9,'INDEX MATCH Master Emp List'!A7:A43,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f>INDEX('INDEX MATCH Master Emp List'!D6:$D$38,MATCH(B9,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="13.5" thickTop="1">
+      <c r="B11" s="68">
+        <v>1054</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="F11" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B11,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
+      <c r="B12" s="68">
+        <v>1078</v>
+      </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="F12" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B12,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
+      <c r="B13" s="68">
+        <v>1284</v>
+      </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="F13" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B13,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
+      <c r="B14" s="68">
+        <v>1299</v>
+      </c>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="F14" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B14,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
+      <c r="B15" s="68">
+        <v>1329</v>
+      </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
-      <c r="F15" s="69"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="F15" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B15,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B16" s="68">
+        <v>1509</v>
+      </c>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
-      <c r="F16" s="69"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="F17" s="69"/>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="F16" s="11">
+        <f>INDEX('INDEX MATCH Master Emp List'!$F$1:$F$38,MATCH(B16,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" thickTop="1">
+      <c r="B18" s="68">
+        <v>1054</v>
+      </c>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
-      <c r="F18" s="69"/>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="F18" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B18,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>33344</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="68">
+        <v>1078</v>
+      </c>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="F19" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B19,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>31503</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="68">
+        <v>1284</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="F20" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B20,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>31051</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="68">
+        <v>1299</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B21,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>32863</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="68">
+        <v>1329</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="F22" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B22,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>32561</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B23" s="68">
+        <v>1509</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="F23" s="136">
+        <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B23,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
+        <v>31217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" thickTop="1">
+      <c r="B25" s="68">
+        <v>1054</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="F25" s="68" t="str">
+        <f>VLOOKUP($B25,'INDEX MATCH Master Emp List'!A1:I38,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="68">
+        <v>1078</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="F26" s="68" t="str">
+        <f>VLOOKUP($B26,'INDEX MATCH Master Emp List'!A2:I39,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="68">
+        <v>1284</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="F27" s="68" t="str">
+        <f>VLOOKUP($B27,'INDEX MATCH Master Emp List'!A3:I40,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="68">
+        <v>1299</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="F28" s="68" t="str">
+        <f>VLOOKUP($B28,'INDEX MATCH Master Emp List'!A4:I41,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="68">
+        <v>1329</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="F29" s="68" t="str">
+        <f>VLOOKUP($B29,'INDEX MATCH Master Emp List'!A5:I42,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="68">
+        <v>1509</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="F30" s="68" t="str">
+        <f>VLOOKUP($B30,'INDEX MATCH Master Emp List'!A6:I43,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <v>Building 1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -14304,425 +15562,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:H26"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="24">
-        <v>13.65</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="17" t="str">
-        <f>LEFT(A3,3)</f>
-        <v>ACM</v>
-      </c>
-      <c r="F3" s="17" t="str">
-        <f>MID(A3,4,3)</f>
-        <v>110</v>
-      </c>
-      <c r="G3" s="17" t="str">
-        <f>RIGHT(A3,2)</f>
-        <v>WW</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="24">
-        <v>12.19</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="24">
-        <v>10.89</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="24">
-        <v>9.59</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="24">
-        <v>10.4</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="24">
-        <v>10.56</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="24">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="24">
-        <v>5.04</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3.9</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="24">
-        <v>4.55</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="24">
-        <v>5.2</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="24">
-        <v>7.31</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="24">
-        <v>6.5</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="24">
-        <v>4.55</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="24">
-        <v>14.3</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="24">
-        <v>13.81</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="24">
-        <v>7.31</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="24">
-        <v>7.31</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="24">
-        <v>7.31</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="24">
-        <v>7.64</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="24">
-        <v>6.14</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
+++ b/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\excel-103-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385688A5-CB05-4466-8DE0-83CDDA48FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680CA46-3F57-45C9-B0C8-C97E3F5ADAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="286">
   <si>
     <t>Monthly Goal:</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>EMP ID</t>
+  </si>
+  <si>
+    <t>SupplierLen</t>
+  </si>
+  <si>
+    <t>CodeLen</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
     <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="170" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1662,7 +1668,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,6 +1985,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1997,25 +2010,19 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="33" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
@@ -2729,14 +2736,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="130" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2933,13 +2940,13 @@
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="3">
         <f>COUNTIF(H5:H9,"YES")</f>
         <v>3</v>
@@ -2960,10 +2967,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2976,9 +2983,10 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="35" t="s">
         <v>168</v>
       </c>
@@ -3001,8 +3009,14 @@
       <c r="H2" s="36" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="22" t="s">
         <v>169</v>
       </c>
@@ -3022,11 +3036,21 @@
         <v>110</v>
       </c>
       <c r="G3" s="17" t="str">
-        <f>RIGHT(A3,2)</f>
+        <f>RIGHT(A3,LEN(A3) - 6)</f>
         <v>WW</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="11">
+        <f>LEN(A3)</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="22" t="s">
         <v>170</v>
       </c>
@@ -3037,11 +3061,24 @@
         <v>12.19</v>
       </c>
       <c r="D4" s="37"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" s="17" t="str">
+        <f t="shared" ref="E4:E26" si="0">LEFT(A4,3)</f>
+        <v>ACM</v>
+      </c>
+      <c r="F4" s="17" t="str">
+        <f t="shared" ref="F4:F26" si="1">MID(A4,4,3)</f>
+        <v>111</v>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f t="shared" ref="G4:G26" si="2">RIGHT(A4,LEN(A4) - 6)</f>
+        <v>WW</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H26" si="3">LEN(A4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="22" t="s">
         <v>171</v>
       </c>
@@ -3052,11 +3089,24 @@
         <v>10.89</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G5" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>WW</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
         <v>172</v>
       </c>
@@ -3067,11 +3117,24 @@
         <v>9.75</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="G6" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="22" t="s">
         <v>173</v>
       </c>
@@ -3082,11 +3145,24 @@
         <v>9.59</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="22" t="s">
         <v>174</v>
       </c>
@@ -3097,11 +3173,24 @@
         <v>10.4</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="22" t="s">
         <v>175</v>
       </c>
@@ -3112,11 +3201,24 @@
         <v>10.56</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="22" t="s">
         <v>176</v>
       </c>
@@ -3127,11 +3229,24 @@
         <v>9.75</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="E10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="22" t="s">
         <v>177</v>
       </c>
@@ -3142,11 +3257,24 @@
         <v>9.75</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>ACM</v>
+      </c>
+      <c r="F11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>DP</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="22" t="s">
         <v>204</v>
       </c>
@@ -3157,11 +3285,24 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OL</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="22" t="s">
         <v>205</v>
       </c>
@@ -3172,11 +3313,24 @@
         <v>5.04</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>TF</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="22" t="s">
         <v>206</v>
       </c>
@@ -3187,11 +3341,24 @@
         <v>3.9</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="E14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OL</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="22" t="s">
         <v>207</v>
       </c>
@@ -3202,11 +3369,24 @@
         <v>4.55</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="E15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OL</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="22" t="s">
         <v>208</v>
       </c>
@@ -3217,11 +3397,24 @@
         <v>5.2</v>
       </c>
       <c r="D16" s="37"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
         <v>209</v>
       </c>
@@ -3232,11 +3425,24 @@
         <v>7.31</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="E17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>BF</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
         <v>210</v>
       </c>
@@ -3247,11 +3453,24 @@
         <v>6.5</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>PS</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="22" t="s">
         <v>178</v>
       </c>
@@ -3262,11 +3481,24 @@
         <v>4.55</v>
       </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>AST</v>
+      </c>
+      <c r="F19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>0995</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>211</v>
       </c>
@@ -3277,11 +3509,24 @@
         <v>14.3</v>
       </c>
       <c r="D20" s="37"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>BVR</v>
+      </c>
+      <c r="F20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>WF</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
         <v>212</v>
       </c>
@@ -3292,11 +3537,24 @@
         <v>13.81</v>
       </c>
       <c r="D21" s="37"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>BVR</v>
+      </c>
+      <c r="F21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>AF</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
         <v>217</v>
       </c>
@@ -3307,11 +3565,24 @@
         <v>7.31</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA</v>
+      </c>
+      <c r="F22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OF</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="22" t="s">
         <v>218</v>
       </c>
@@ -3322,11 +3593,24 @@
         <v>7.31</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA</v>
+      </c>
+      <c r="F23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OF</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="22" t="s">
         <v>214</v>
       </c>
@@ -3337,11 +3621,24 @@
         <v>7.31</v>
       </c>
       <c r="D24" s="37"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA</v>
+      </c>
+      <c r="F24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OF</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="22" t="s">
         <v>215</v>
       </c>
@@ -3352,11 +3649,24 @@
         <v>7.64</v>
       </c>
       <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA</v>
+      </c>
+      <c r="F25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OF</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="22" t="s">
         <v>216</v>
       </c>
@@ -3367,9 +3677,22 @@
         <v>6.14</v>
       </c>
       <c r="D26" s="37"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>TRA</v>
+      </c>
+      <c r="F26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>OF</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3384,7 +3707,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3406,28 +3729,68 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="137" t="s">
         <v>243</v>
       </c>
+      <c r="B2" s="11" t="str">
+        <f>LEFT(A2,SEARCH(" ",A2))</f>
+        <v xml:space="preserve">Patrick </v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>RIGHT(A2,LEN(A2)-SEARCH(" ",A2))</f>
+        <v>Marleau</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="137" t="s">
         <v>244</v>
       </c>
+      <c r="B3" s="11" t="str">
+        <f t="shared" ref="B3:B6" si="0">LEFT(A3,SEARCH(" ",A3))</f>
+        <v xml:space="preserve">Joe </v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f t="shared" ref="C3:C6" si="1">RIGHT(A3,LEN(A3)-SEARCH(" ",A3))</f>
+        <v>Thornton</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="137" t="s">
         <v>245</v>
       </c>
+      <c r="B4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Brent </v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Burns</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="137" t="s">
         <v>246</v>
       </c>
+      <c r="B5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Joe </v>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pavelski</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="137" t="s">
         <v>247</v>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Martin </v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
       </c>
     </row>
   </sheetData>
@@ -3441,8 +3804,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3460,10 +3823,10 @@
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="132"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="25" t="s">
@@ -3472,11 +3835,11 @@
       <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="130" t="str">
+      <c r="E3" s="134" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
         <v>Howard Smith</v>
       </c>
-      <c r="F3" s="131"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="25" t="s">
@@ -3485,8 +3848,11 @@
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="134" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C4,B4)</f>
+        <v>Joe Gonzales</v>
+      </c>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="25" t="s">
@@ -3495,8 +3861,11 @@
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="134" t="str">
+        <f>_xlfn.CONCAT(C5," ",B5)</f>
+        <v>Gail Scote</v>
+      </c>
+      <c r="F5" s="135"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="25" t="s">
@@ -3505,8 +3874,11 @@
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
+      <c r="E6" s="134" t="str">
+        <f t="shared" ref="E6:E18" si="0">_xlfn.CONCAT(C6," ",B6)</f>
+        <v>Sheryl Kane</v>
+      </c>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="25" t="s">
@@ -3515,8 +3887,11 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
+      <c r="E7" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Kendrick Hapsbuch</v>
+      </c>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="25" t="s">
@@ -3525,8 +3900,11 @@
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
+      <c r="E8" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Mark Henders</v>
+      </c>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="25" t="s">
@@ -3535,8 +3913,11 @@
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
+      <c r="E9" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Katie Atherton</v>
+      </c>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="25" t="s">
@@ -3545,8 +3926,11 @@
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
+      <c r="E10" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Frank Bellwood</v>
+      </c>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="25" t="s">
@@ -3555,8 +3939,11 @@
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
+      <c r="E11" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Linda Cooper</v>
+      </c>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="25" t="s">
@@ -3565,8 +3952,11 @@
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
+      <c r="E12" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Brent Cronwith</v>
+      </c>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
@@ -3575,8 +3965,11 @@
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
+      <c r="E13" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Sandrae Simpson</v>
+      </c>
+      <c r="F13" s="135"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="25" t="s">
@@ -3585,8 +3978,11 @@
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
+      <c r="E14" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Randy Sindole</v>
+      </c>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
@@ -3595,8 +3991,11 @@
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
+      <c r="E15" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Ellen Smith</v>
+      </c>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="25" t="s">
@@ -3605,8 +4004,11 @@
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
+      <c r="E16" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuome Vuanuo</v>
+      </c>
+      <c r="F16" s="135"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="25" t="s">
@@ -3615,8 +4017,11 @@
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="131"/>
+      <c r="E17" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Tadeuz Szcznyck</v>
+      </c>
+      <c r="F17" s="135"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="25" t="s">
@@ -3625,11 +4030,21 @@
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
+      <c r="E18" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>Tammy Wu</v>
+      </c>
+      <c r="F18" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -3640,13 +4055,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3678,14 +4086,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -3904,13 +4312,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -3980,14 +4388,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -4207,13 +4615,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -4759,10 +5167,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="133"/>
+      <c r="C10" s="136"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="113" t="s">
@@ -13853,7 +14261,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -13871,10 +14279,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="61" t="s">
@@ -14210,10 +14618,10 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="134"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="32" t="s">
         <v>21</v>
       </c>
@@ -14285,10 +14693,10 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="134"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="32" t="s">
         <v>23</v>
       </c>
@@ -14299,7 +14707,7 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
-      <c r="F18" s="136">
+      <c r="F18" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B18,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>33344</v>
       </c>
@@ -14310,7 +14718,7 @@
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
-      <c r="F19" s="136">
+      <c r="F19" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B19,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>31503</v>
       </c>
@@ -14321,7 +14729,7 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
-      <c r="F20" s="136">
+      <c r="F20" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B20,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>31051</v>
       </c>
@@ -14332,7 +14740,7 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
-      <c r="F21" s="136">
+      <c r="F21" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B21,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>32863</v>
       </c>
@@ -14343,7 +14751,7 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
-      <c r="F22" s="136">
+      <c r="F22" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B22,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>32561</v>
       </c>
@@ -14354,16 +14762,16 @@
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="F23" s="136">
+      <c r="F23" s="126">
         <f>INDEX('INDEX MATCH Master Emp List'!$H$1:$H$38,MATCH(B23,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>31217</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="134"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="32" t="s">
         <v>22</v>
       </c>

--- a/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
+++ b/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\excel-103-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680CA46-3F57-45C9-B0C8-C97E3F5ADAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44F223-ADA7-4420-9160-CC3311FA859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -1992,6 +1992,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2010,19 +2011,18 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
@@ -2736,14 +2736,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2940,13 +2940,13 @@
       <c r="A11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="3">
         <f>COUNTIF(H5:H9,"YES")</f>
         <v>3</v>
@@ -2969,8 +2969,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3706,8 +3706,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="127" t="s">
         <v>243</v>
       </c>
       <c r="B2" s="11" t="str">
@@ -3742,7 +3742,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="127" t="s">
         <v>244</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -3755,7 +3755,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="127" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="11" t="str">
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="127" t="s">
         <v>246</v>
       </c>
       <c r="B5" s="11" t="str">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="127" t="s">
         <v>247</v>
       </c>
       <c r="B6" s="11" t="str">
@@ -3789,7 +3789,7 @@
         <v xml:space="preserve">Martin </v>
       </c>
       <c r="C6" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTAFTER(A6," ",-1,0,0)</f>
         <v>Jones</v>
       </c>
     </row>
@@ -3804,8 +3804,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3823,10 +3823,10 @@
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="25" t="s">
@@ -4038,13 +4038,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -4055,6 +4048,13 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4086,14 +4086,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -4388,14 +4388,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="H2" s="28" t="s">
         <v>0</v>
       </c>
@@ -4615,13 +4615,13 @@
     </row>
     <row r="13" spans="1:9" ht="3" customHeight="1"/>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="3">
         <f>COUNTIF(H5:H9, "YES")</f>
         <v>3</v>
@@ -5167,10 +5167,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="136"/>
+      <c r="C10" s="137"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="113" t="s">
@@ -12749,7 +12749,7 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12790,15 +12790,15 @@
         <v>howards</v>
       </c>
       <c r="D3" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B3,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>148</v>
       </c>
       <c r="E3" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B3,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>11.25</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B3,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B3,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="G3" s="67"/>
@@ -12812,15 +12812,15 @@
         <v>joeg</v>
       </c>
       <c r="D4" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B4,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>121</v>
       </c>
       <c r="E4" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B4,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>12.25</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B4,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B4,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="G4" s="67"/>
@@ -12834,15 +12834,15 @@
         <v>gails</v>
       </c>
       <c r="D5" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B5,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>123</v>
       </c>
       <c r="E5" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B5,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>14.55</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B5,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B5,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AT</v>
       </c>
       <c r="G5" s="67"/>
@@ -12856,15 +12856,15 @@
         <v>sherylk</v>
       </c>
       <c r="D6" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B6,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>126</v>
       </c>
       <c r="E6" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B6,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>11.25</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B6,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B6,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AD</v>
       </c>
       <c r="G6" s="67"/>
@@ -12878,15 +12878,15 @@
         <v>kendrickh</v>
       </c>
       <c r="D7" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B7,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>101</v>
       </c>
       <c r="E7" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B7,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>10.199999999999999</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B7,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B7,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="G7" s="67"/>
@@ -12900,15 +12900,15 @@
         <v>markh</v>
       </c>
       <c r="D8" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B8,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>118</v>
       </c>
       <c r="E8" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B8,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>12.25</v>
       </c>
       <c r="F8" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B8,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B8,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AD</v>
       </c>
       <c r="G8" s="67"/>
@@ -12922,15 +12922,15 @@
         <v>katiea</v>
       </c>
       <c r="D9" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B9,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>289</v>
       </c>
       <c r="E9" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B9,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B9,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B9,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>HR</v>
       </c>
       <c r="G9" s="67"/>
@@ -12944,15 +12944,15 @@
         <v>frankb</v>
       </c>
       <c r="D10" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B10,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>124</v>
       </c>
       <c r="E10" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B10,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>12.3</v>
       </c>
       <c r="F10" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B10,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B10,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>MK</v>
       </c>
       <c r="G10" s="67"/>
@@ -12964,15 +12964,15 @@
         <v>#N/A</v>
       </c>
       <c r="D11" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B11,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B11,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F11" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B11,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B11,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G11" s="67"/>
@@ -12984,15 +12984,15 @@
         <v>#N/A</v>
       </c>
       <c r="D12" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B12,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B12,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F12" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B12,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B12,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G12" s="67"/>
@@ -13004,15 +13004,15 @@
         <v>#N/A</v>
       </c>
       <c r="D13" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B13,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B13,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F13" s="11" t="e">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B13,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B13,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G13" s="67"/>
@@ -13026,15 +13026,15 @@
         <v>randys</v>
       </c>
       <c r="D14" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B14,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>139</v>
       </c>
       <c r="E14" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B14,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>14.25</v>
       </c>
       <c r="F14" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B14,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B14,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>MK</v>
       </c>
       <c r="G14" s="67"/>
@@ -13048,15 +13048,15 @@
         <v>ellens</v>
       </c>
       <c r="D15" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B15,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>137</v>
       </c>
       <c r="E15" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B15,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>11.5</v>
       </c>
       <c r="F15" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B15,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B15,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>MF</v>
       </c>
       <c r="G15" s="67"/>
@@ -13070,15 +13070,15 @@
         <v>tuomev</v>
       </c>
       <c r="D16" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B16,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>151</v>
       </c>
       <c r="E16" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B16,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>10.35</v>
       </c>
       <c r="F16" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B16,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B16,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AC</v>
       </c>
       <c r="G16" s="67"/>
@@ -13092,15 +13092,15 @@
         <v>tadeuzs</v>
       </c>
       <c r="D17" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B17,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>122</v>
       </c>
       <c r="E17" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B17,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>10.15</v>
       </c>
       <c r="F17" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B17,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B17,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>HR</v>
       </c>
       <c r="G17" s="67"/>
@@ -13114,15 +13114,15 @@
         <v>tammyw</v>
       </c>
       <c r="D18" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(D$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B18,'Master Emp List'!$A$1:$I$38,6,FALSE)</f>
         <v>132</v>
       </c>
       <c r="E18" s="11">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(E$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B18,'Master Emp List'!$A$1:$I$38,9,FALSE)</f>
         <v>12.25</v>
       </c>
       <c r="F18" s="11" t="str">
-        <f>INDEX('Master Emp List'!$A$1:$I$38,MATCH($B18,'Master Emp List'!$A$1:$A$38,0),MATCH(F$2,'Master Emp List'!$A$1:$I$1,0))</f>
+        <f>VLOOKUP(B18,'Master Emp List'!$A$1:$I$38,4,FALSE)</f>
         <v>AD</v>
       </c>
       <c r="G18" s="67"/>
@@ -13138,7 +13138,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -14262,7 +14262,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14279,10 +14279,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="133"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
       <c r="A3" s="61" t="s">
@@ -14383,7 +14383,7 @@
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14494,8 +14494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A99380-3415-42C6-8C41-613698A280FA}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14783,7 +14783,7 @@
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="F25" s="68" t="str">
-        <f>VLOOKUP($B25,'INDEX MATCH Master Emp List'!A1:I38,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B25,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 1</v>
       </c>
     </row>
@@ -14794,7 +14794,7 @@
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="F26" s="68" t="str">
-        <f>VLOOKUP($B26,'INDEX MATCH Master Emp List'!A2:I39,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B26,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 2</v>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="F27" s="68" t="str">
-        <f>VLOOKUP($B27,'INDEX MATCH Master Emp List'!A3:I40,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B27,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 1</v>
       </c>
     </row>
@@ -14816,7 +14816,7 @@
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="F28" s="68" t="str">
-        <f>VLOOKUP($B28,'INDEX MATCH Master Emp List'!A4:I41,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B28,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 1</v>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="F29" s="68" t="str">
-        <f>VLOOKUP($B29,'INDEX MATCH Master Emp List'!A5:I42,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B29,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 2</v>
       </c>
     </row>
@@ -14838,7 +14838,7 @@
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
       <c r="F30" s="68" t="str">
-        <f>VLOOKUP($B30,'INDEX MATCH Master Emp List'!A6:I43,MATCH("Location",'INDEX MATCH Master Emp List'!$A$1:$I$1,0),FALSE)</f>
+        <f>INDEX('INDEX MATCH Master Emp List'!$G$1:$G$38,MATCH(B30,'INDEX MATCH Master Emp List'!$A$1:$A$38,0))</f>
         <v>Building 1</v>
       </c>
     </row>

--- a/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
+++ b/learning-excel/excel-103-course/Excel103-AdvancedExercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\excel-103-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44F223-ADA7-4420-9160-CC3311FA859E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CEF991-7395-4FDF-AF30-A013E3B7ED6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF Function" sheetId="4" r:id="rId1"/>
@@ -110,6 +110,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2011,13 +2014,13 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3706,7 +3709,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3750,7 +3753,7 @@
         <v xml:space="preserve">Joe </v>
       </c>
       <c r="C3" s="11" t="str">
-        <f t="shared" ref="C3:C6" si="1">RIGHT(A3,LEN(A3)-SEARCH(" ",A3))</f>
+        <f t="shared" ref="C3:C5" si="1">RIGHT(A3,LEN(A3)-SEARCH(" ",A3))</f>
         <v>Thornton</v>
       </c>
     </row>
@@ -3823,10 +3826,10 @@
       <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="136"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="25" t="s">
@@ -3835,11 +3838,11 @@
       <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="134" t="str">
+      <c r="E3" s="135" t="str">
         <f>CONCATENATE(C3," ",B3)</f>
         <v>Howard Smith</v>
       </c>
-      <c r="F3" s="135"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="25" t="s">
@@ -3848,11 +3851,11 @@
       <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="134" t="str">
+      <c r="E4" s="135" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,C4,B4)</f>
         <v>Joe Gonzales</v>
       </c>
-      <c r="F4" s="135"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="25" t="s">
@@ -3861,11 +3864,11 @@
       <c r="C5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="134" t="str">
+      <c r="E5" s="135" t="str">
         <f>_xlfn.CONCAT(C5," ",B5)</f>
         <v>Gail Scote</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="25" t="s">
@@ -3874,11 +3877,11 @@
       <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="134" t="str">
+      <c r="E6" s="135" t="str">
         <f t="shared" ref="E6:E18" si="0">_xlfn.CONCAT(C6," ",B6)</f>
         <v>Sheryl Kane</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="25" t="s">
@@ -3887,11 +3890,11 @@
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="134" t="str">
+      <c r="E7" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Kendrick Hapsbuch</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="25" t="s">
@@ -3900,11 +3903,11 @@
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="134" t="str">
+      <c r="E8" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Mark Henders</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="25" t="s">
@@ -3913,11 +3916,11 @@
       <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="134" t="str">
+      <c r="E9" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Katie Atherton</v>
       </c>
-      <c r="F9" s="135"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="25" t="s">
@@ -3926,11 +3929,11 @@
       <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="134" t="str">
+      <c r="E10" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Frank Bellwood</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="25" t="s">
@@ -3939,11 +3942,11 @@
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="134" t="str">
+      <c r="E11" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Linda Cooper</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="25" t="s">
@@ -3952,11 +3955,11 @@
       <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="134" t="str">
+      <c r="E12" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Brent Cronwith</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="25" t="s">
@@ -3965,11 +3968,11 @@
       <c r="C13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="134" t="str">
+      <c r="E13" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Sandrae Simpson</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="25" t="s">
@@ -3978,11 +3981,11 @@
       <c r="C14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="134" t="str">
+      <c r="E14" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Randy Sindole</v>
       </c>
-      <c r="F14" s="135"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="25" t="s">
@@ -3991,11 +3994,11 @@
       <c r="C15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="134" t="str">
+      <c r="E15" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Ellen Smith</v>
       </c>
-      <c r="F15" s="135"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="25" t="s">
@@ -4004,11 +4007,11 @@
       <c r="C16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="134" t="str">
+      <c r="E16" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Tuome Vuanuo</v>
       </c>
-      <c r="F16" s="135"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="25" t="s">
@@ -4017,11 +4020,11 @@
       <c r="C17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="134" t="str">
+      <c r="E17" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Tadeuz Szcznyck</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="25" t="s">
@@ -4030,14 +4033,21 @@
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="134" t="str">
+      <c r="E18" s="135" t="str">
         <f t="shared" si="0"/>
         <v>Tammy Wu</v>
       </c>
-      <c r="F18" s="135"/>
+      <c r="F18" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -4048,13 +4058,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4068,7 +4071,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4361,6 +4364,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cellWatches>
+    <cellWatch r="B2"/>
+  </cellWatches>
 </worksheet>
 </file>
 
@@ -4369,8 +4375,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4628,6 +4634,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="niHvW8jr3BPVLq+5wrcpgRVoDflEeDcXji82RaKmlNr/7kHQODRSBwQ0NHJcS38uJHhxy7nhJXVbB7GRsoMWYw==" saltValue="hVpP5EmfTYwGtOZepge3sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A14:E14"/>
